--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21915"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tccoin\codes\RV-AutoAim\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC16285-3670-4419-88A1-B1303331C885}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D69E69-49CC-47E2-9FC2-2A0643D14928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2990" yWindow="1390" windowWidth="23620" windowHeight="15480" activeTab="3" xr2:uid="{61A650BA-3C9A-41F1-8A09-4CDBFF092C4B}"/>
+    <workbookView xWindow="-98" yWindow="353" windowWidth="24196" windowHeight="13244" activeTab="1" xr2:uid="{61A650BA-3C9A-41F1-8A09-4CDBFF092C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="距离-下坠" sheetId="1" r:id="rId1"/>
@@ -617,6 +617,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'距离-高度'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>距离cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -652,14 +663,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:forward val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1432633420822405E-3"/>
-                  <c:y val="-0.21950422863808691"/>
+                  <c:x val="2.1434820647419072E-4"/>
+                  <c:y val="-0.13114173228346448"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -694,45 +704,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'距离-高度'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>640</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>'距离-高度'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -769,11 +740,50 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'距离-高度'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-87A8-4A1F-85D7-04FDC319D539}"/>
+              <c16:uniqueId val="{00000000-0AF9-4227-94B1-5F59C6DDF103}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -785,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="667450704"/>
-        <c:axId val="664501696"/>
+        <c:axId val="1256257935"/>
+        <c:axId val="1362799503"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="667450704"/>
+        <c:axId val="1256257935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,12 +856,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664501696"/>
+        <c:crossAx val="1362799503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664501696"/>
+        <c:axId val="1362799503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667450704"/>
+        <c:crossAx val="1256257935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3073,23 +3083,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>252860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38721</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254689</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>284610</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67296</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304385</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AC8583-04BD-4300-9F7E-DFB4EB97F4AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9522FD98-C2CE-4C13-B3A6-57B9879227D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,10 +3461,10 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3576,140 +3586,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180A7E0-DCB3-438F-8D95-38E18271EE09}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>30</v>
-      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>60</v>
-      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>80</v>
-      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>160</v>
-      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>240</v>
-      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>320</v>
-      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>400</v>
-      </c>
+      <c r="C7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>480</v>
-      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>560</v>
-      </c>
+      <c r="C9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>640</v>
-      </c>
+      <c r="C10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>1280</v>
+      <c r="C11">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -3726,9 +3696,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3853,11 +3823,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6436C8-7AEE-4A0E-9D8E-74B9675452E0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21919"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tccoin\codes\RV-AutoAim\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D69E69-49CC-47E2-9FC2-2A0643D14928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4261CF0-B2E6-4791-8002-801B916274E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="353" windowWidth="24196" windowHeight="13244" activeTab="1" xr2:uid="{61A650BA-3C9A-41F1-8A09-4CDBFF092C4B}"/>
+    <workbookView xWindow="-98" yWindow="353" windowWidth="24196" windowHeight="13244" xr2:uid="{61A650BA-3C9A-41F1-8A09-4CDBFF092C4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="距离-下坠" sheetId="1" r:id="rId1"/>
-    <sheet name="距离-高度" sheetId="2" r:id="rId2"/>
-    <sheet name="输出-移动" sheetId="3" r:id="rId3"/>
-    <sheet name="摄像头延迟" sheetId="4" r:id="rId4"/>
+    <sheet name="步兵下坠" sheetId="1" r:id="rId1"/>
+    <sheet name="英雄下坠" sheetId="5" r:id="rId2"/>
+    <sheet name="距离-高度" sheetId="2" r:id="rId3"/>
+    <sheet name="射频" sheetId="6" r:id="rId4"/>
+    <sheet name="输出-移动" sheetId="3" r:id="rId5"/>
+    <sheet name="摄像头延迟" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>高度px</t>
   </si>
@@ -57,6 +59,18 @@
   </si>
   <si>
     <t>360p</t>
+  </si>
+  <si>
+    <t>射击距离m</t>
+  </si>
+  <si>
+    <t>下坠距离cm</t>
+  </si>
+  <si>
+    <t>fomula: -1.13127 + 1.81432 x^2</t>
+  </si>
+  <si>
+    <t>距离m</t>
   </si>
 </sst>
 </file>
@@ -93,8 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,25 +178,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.2025371828521432E-2"/>
-          <c:y val="0.26471698113207548"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.62082850492745012"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>步兵下坠!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下坠cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -199,168 +220,42 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'距离-下坠'!$A$2:$A$9</c:f>
+              <c:f>步兵下坠!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>320</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>560</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>720</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1040</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'距离-下坠'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACC0-4CF3-8F2A-383DB0145E1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>'距离-下坠'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1040</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'距离-下坠'!$B$2:$B$9</c:f>
+              <c:f>步兵下坠!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -390,11 +285,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ACC0-4CF3-8F2A-383DB0145E1D}"/>
+              <c16:uniqueId val="{00000000-4026-43B5-B333-DDC786F8C1D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -406,19 +301,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="667288976"/>
-        <c:axId val="664478816"/>
-        <c:extLst/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="667288976"/>
+        <c:axId val="450637280"/>
+        <c:axId val="265727200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="450637280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -428,8 +334,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -456,15 +362,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664478816"/>
+        <c:crossAx val="265727200"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="664478816"/>
+        <c:axId val="265727200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,8 +393,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -515,9 +424,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667288976"/>
+        <c:crossAx val="450637280"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -617,6 +526,339 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>英雄下坠!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>英雄下坠!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79C2-4204-B7DE-5E329476F10F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="279550160"/>
+        <c:axId val="265713888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="279550160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265713888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="265713888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279550160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'距离-高度'!$C$1</c:f>
@@ -748,34 +990,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>560</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>640</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +1209,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1503,8 +1745,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1531,8 +1813,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1633,7 +1915,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1665,10 +1947,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1708,22 +1990,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1828,8 +2111,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1961,19 +2244,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1987,6 +2271,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3038,27 +3333,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>275446</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176727</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547902</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>313544</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22239</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A704155-E65D-4D8B-B045-9E9AF4973742}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1D5D3B-889B-4464-9BDF-3975040CB8E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,6 +3891,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302418</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88106</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFE15A0-321A-4845-A905-B49D919D2475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3120,7 +3972,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3458,124 +4310,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7A3C4F-FB82-443A-B8D0-AE190E0218A1}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <f>1.51237 *A2*A2-3</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>160</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <f>1.51237 *A3*A3-3</f>
+        <v>-2.0320831999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1.6</v>
+      </c>
+      <c r="B4">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>240</v>
-      </c>
-      <c r="B4">
+      <c r="C4">
+        <f t="shared" ref="C4:C10" si="0">1.50404*A4*A4</f>
+        <v>3.8503424000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2.4</v>
+      </c>
+      <c r="B5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>320</v>
-      </c>
-      <c r="B5">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.6632704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3.2</v>
+      </c>
+      <c r="B6">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>15.401369600000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>560</v>
-      </c>
-      <c r="B7">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>24.064640000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5.6</v>
+      </c>
+      <c r="B8">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>720</v>
-      </c>
-      <c r="B8">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>47.16669439999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7.2</v>
+      </c>
+      <c r="B9">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1040</v>
-      </c>
-      <c r="B9">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>77.969433600000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10.4</v>
+      </c>
+      <c r="B10">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1680</v>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>162.67696640000003</v>
       </c>
     </row>
   </sheetData>
@@ -3585,11 +4441,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D46039-F1AE-434C-9064-2217898C9BDD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <f>1.81432*A2*A2-5</f>
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <f>B2+5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="C3">
+        <f>1.81432*A3*A3-5</f>
+        <v>-3.1856800000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">B3+5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C3:C7" si="1">1.81432*A4*A4-5</f>
+        <v>2.2572799999999997</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>11.328879999999998</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>24.029119999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <f>1.81432*A7*A7-5</f>
+        <v>40.358000000000004</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180A7E0-DCB3-438F-8D95-38E18271EE09}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3607,7 +4591,7 @@
         <v>130</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -3615,7 +4599,7 @@
         <v>92</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -3623,7 +4607,7 @@
         <v>74</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3631,7 +4615,7 @@
         <v>46</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -3639,7 +4623,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -3647,7 +4631,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>320</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3655,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3663,7 +4647,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>480</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -3671,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>560</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -3679,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>640</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +4672,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003EACF0-784E-4B3C-891B-758751AE7E08}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <f>1/(240/A1/A1)</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B16" si="0">1/(240/A2/A2)</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>1.2041666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.5041666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.8374999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.0166666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.2041666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.6041666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.8166666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.0375000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.2666666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.504166666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BE2531-FE2F-43CF-A223-EB8F45289DC1}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3819,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6436C8-7AEE-4A0E-9D8E-74B9675452E0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
